--- a/Examples/test/test0_model.xlsx
+++ b/Examples/test/test0_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF23760-AB68-4EE6-818C-A51DFEF61DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B203C-ED4B-4213-ACF2-65A571EFA9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$B$4</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -868,8 +868,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,13 +901,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,13 +943,13 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,13 +957,13 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -988,8 +988,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
